--- a/tables/TableS3_distribution_params.xlsx
+++ b/tables/TableS3_distribution_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/subnational_nutrient_distributions/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E902AF-BE3C-2143-A582-10415C5BEF13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E7593D-DE18-8744-BCCB-302289032782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="8160" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="3740" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_nutrient_key" sheetId="1" r:id="rId1"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
